--- a/data/trans_camb/CAGE_R-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/CAGE_R-Dificultad-trans_camb.xlsx
@@ -664,7 +664,7 @@
         <v>0.4949550401124052</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>2.964650847457318</v>
+        <v>2.964650847457317</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.1297648148812765</v>
+        <v>-0.1653659968211814</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.3689329504803727</v>
+        <v>-0.4015001055295101</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.8064028871653331</v>
+        <v>0.9555676728226749</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.007431242225463</v>
+        <v>-1.016298962508239</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-0.6838890346478517</v>
+        <v>-0.6298183231675266</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2463526514091622</v>
+        <v>0.219203276805633</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-0.108024291596501</v>
+        <v>-0.09612793645035445</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-0.1346813885094033</v>
+        <v>-0.1198758826341828</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>1.454421352147688</v>
+        <v>1.334981951641734</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.44189302820931</v>
+        <v>2.593989771651942</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.159505680347361</v>
+        <v>2.240837113950977</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6.622807426211155</v>
+        <v>6.466324788252134</v>
       </c>
       <c r="F6" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.3574626395392463</v>
+        <v>0.3751758202196587</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>4.604333051550289</v>
+        <v>4.546528743074086</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>1.219785123407531</v>
+        <v>1.195351176640308</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>1.145468302037431</v>
+        <v>1.08586821655942</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>5.474789491197424</v>
+        <v>5.063853802284658</v>
       </c>
     </row>
     <row r="7">
@@ -769,7 +769,7 @@
         <v>0.7375388501457167</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>4.417664231928271</v>
+        <v>4.41766423192827</v>
       </c>
     </row>
     <row r="8">
@@ -780,25 +780,25 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.1538085195894275</v>
+        <v>-0.1437867517142294</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.2285028960987854</v>
+        <v>-0.2239504560578016</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.3282366595074841</v>
+        <v>0.3679590114109531</v>
       </c>
       <c r="F8" s="6" t="inlineStr"/>
       <c r="G8" s="6" t="inlineStr"/>
       <c r="H8" s="6" t="inlineStr"/>
       <c r="I8" s="6" t="n">
-        <v>-0.1710052970110633</v>
+        <v>-0.1705335917840169</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.1813857876554349</v>
+        <v>-0.1779588817869928</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>1.202831830883449</v>
+        <v>1.33701375055231</v>
       </c>
     </row>
     <row r="9">
@@ -809,25 +809,25 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>3.565997495643602</v>
+        <v>3.580449578597828</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>3.314034338334424</v>
+        <v>3.766704007703166</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>8.379933725108121</v>
+        <v>8.261857243377827</v>
       </c>
       <c r="F9" s="6" t="inlineStr"/>
       <c r="G9" s="6" t="inlineStr"/>
       <c r="H9" s="6" t="inlineStr"/>
       <c r="I9" s="6" t="n">
-        <v>3.004156503243382</v>
+        <v>3.028273742617197</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>3.273331105679802</v>
+        <v>2.802597981535593</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>11.62298871196685</v>
+        <v>11.07893998678688</v>
       </c>
     </row>
     <row r="10">
@@ -857,7 +857,7 @@
         <v>0.2286121651823773</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.6983941005162692</v>
+        <v>0.6983941005162694</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>0.3877087579765153</v>
@@ -877,31 +877,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1601006696683969</v>
+        <v>0.2418326990321566</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.8052089180552157</v>
+        <v>-0.861336583344037</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.07530462139093659</v>
+        <v>-0.05233782176894364</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.8491145460089786</v>
+        <v>-0.8722466767739409</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-0.4438042115748648</v>
+        <v>-0.3517518334851049</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-0.1792345786144318</v>
+        <v>-0.2097191317349576</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-0.08202783633560541</v>
+        <v>-0.1195727911700143</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-0.3992991175162992</v>
+        <v>-0.4001514617827043</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1648019385396798</v>
+        <v>0.2021280727521736</v>
       </c>
     </row>
     <row r="12">
@@ -912,31 +912,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.359376438504028</v>
+        <v>2.464090390911089</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.6533190949823126</v>
+        <v>0.6228949714308755</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.946989837985252</v>
+        <v>2.666236501233255</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.113762784682557</v>
+        <v>0.1041552152798139</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.878273168439657</v>
+        <v>0.9094050829005921</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>2.279603432634327</v>
+        <v>2.249242793011879</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.9797331701926959</v>
+        <v>1.035622486106766</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.5432915671742631</v>
+        <v>0.5345001818702964</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>2.207277211630877</v>
+        <v>2.132484130679768</v>
       </c>
     </row>
     <row r="13">
@@ -962,7 +962,7 @@
         <v>0.6575882036557137</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>2.008885754771038</v>
+        <v>2.008885754771039</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.7498048481677513</v>
@@ -971,7 +971,7 @@
         <v>0.1137710748558522</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>1.999093337284661</v>
+        <v>1.999093337284662</v>
       </c>
     </row>
     <row r="14">
@@ -982,27 +982,27 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.02269502496996477</v>
+        <v>-0.005482841158942125</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.8119059926051194</v>
+        <v>-0.818634656780173</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.1216774313827446</v>
+        <v>-0.3473718699693563</v>
       </c>
       <c r="F14" s="6" t="inlineStr"/>
       <c r="G14" s="6" t="n">
-        <v>-0.8182853252399308</v>
+        <v>-0.7805705177064379</v>
       </c>
       <c r="H14" s="6" t="inlineStr"/>
       <c r="I14" s="6" t="n">
-        <v>-0.1987795582830903</v>
+        <v>-0.240728123553686</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.5701472501607744</v>
+        <v>-0.5661327247646422</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.09112972514287786</v>
+        <v>0.130542565432011</v>
       </c>
     </row>
     <row r="15">
@@ -1013,25 +1013,27 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>6.080285885234909</v>
+        <v>6.716380891099642</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>2.263374454827424</v>
+        <v>2.213444196520807</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>7.667684543258404</v>
+        <v>7.838968435652023</v>
       </c>
       <c r="F15" s="6" t="inlineStr"/>
-      <c r="G15" s="6" t="inlineStr"/>
+      <c r="G15" s="6" t="n">
+        <v>9.801724237351413</v>
+      </c>
       <c r="H15" s="6" t="inlineStr"/>
       <c r="I15" s="6" t="n">
-        <v>3.163630085869922</v>
+        <v>3.338020048494703</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>2.000840414706623</v>
+        <v>1.965404258088633</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>6.828443105629837</v>
+        <v>6.752746449027936</v>
       </c>
     </row>
     <row r="16">
@@ -1070,7 +1072,7 @@
         <v>0.3066389364070688</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>1.641214300988447</v>
+        <v>1.641214300988448</v>
       </c>
     </row>
     <row r="17">
@@ -1081,31 +1083,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.09991869507639563</v>
+        <v>-0.06599260329388495</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.5322792722866386</v>
+        <v>-0.634342083350654</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1238141898341409</v>
+        <v>0.217025081470108</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.01001880174212908</v>
+        <v>-0.0265441326462693</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-0.06630732528674452</v>
+        <v>-0.06831014902889229</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.5583121552374184</v>
+        <v>0.4504371088572692</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.06516268065795257</v>
+        <v>0.05327233310933959</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-0.2034271329368096</v>
+        <v>-0.1565156675342048</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.6444808528333301</v>
+        <v>0.6346075732244928</v>
       </c>
     </row>
     <row r="18">
@@ -1116,31 +1118,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.972076684241496</v>
+        <v>2.05021836816201</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.162957352978507</v>
+        <v>1.096138655428828</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.41367088014012</v>
+        <v>3.419178215594253</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.048139960800956</v>
+        <v>0.9982608511212709</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1.369710826296733</v>
+        <v>1.424620103361748</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>5.739767165710928</v>
+        <v>4.933977766402703</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>1.181383656999108</v>
+        <v>1.207648654202864</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.8601916061983428</v>
+        <v>0.9042559382215218</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>3.113755545989325</v>
+        <v>3.313471278742192</v>
       </c>
     </row>
     <row r="19">
@@ -1175,7 +1177,7 @@
         <v>0.7542578325016962</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>4.036991374412412</v>
+        <v>4.036991374412413</v>
       </c>
     </row>
     <row r="20">
@@ -1186,25 +1188,25 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.246891309014058</v>
+        <v>-0.2339074544566386</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.6100102131831864</v>
+        <v>-0.7115033291951296</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.2107148551190407</v>
+        <v>-0.03787016629243053</v>
       </c>
       <c r="F20" s="6" t="inlineStr"/>
       <c r="G20" s="6" t="inlineStr"/>
       <c r="H20" s="6" t="inlineStr"/>
       <c r="I20" s="6" t="n">
-        <v>-0.07274900039106721</v>
+        <v>-0.09911252367838817</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.4639756794899031</v>
+        <v>-0.3633962480704939</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.757131052150699</v>
+        <v>0.7423475594527915</v>
       </c>
     </row>
     <row r="21">
@@ -1215,25 +1217,25 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>5.780377449523256</v>
+        <v>6.163780826125691</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>3.465716150506863</v>
+        <v>3.034809597574362</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>8.353125895275781</v>
+        <v>9.838184039510256</v>
       </c>
       <c r="F21" s="6" t="inlineStr"/>
       <c r="G21" s="6" t="inlineStr"/>
       <c r="H21" s="6" t="inlineStr"/>
       <c r="I21" s="6" t="n">
-        <v>5.096420636825988</v>
+        <v>5.337949640202369</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>4.04045329866268</v>
+        <v>3.362248199803826</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>12.09470086733343</v>
+        <v>11.92220275704606</v>
       </c>
     </row>
     <row r="22">
@@ -1254,7 +1256,7 @@
         <v>1.917184288882998</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1.942088174053193</v>
+        <v>1.942088174053194</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>-0.2982960062995433</v>
@@ -1263,7 +1265,7 @@
         <v>0.5146047471266334</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>2.184647255670415</v>
+        <v>2.184647255670414</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>0.6115870303450831</v>
@@ -1283,31 +1285,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.2266277591828817</v>
+        <v>0.06183844335458681</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.4615852388037054</v>
+        <v>0.5777418976058682</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.4621397718068269</v>
+        <v>0.6091724530593803</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-1.800643047245423</v>
+        <v>-1.494099571280916</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-0.4761464896722617</v>
+        <v>-0.4812455000795641</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.464210822028393</v>
+        <v>0.5410382285078427</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-0.1836855790005422</v>
+        <v>-0.1897818776563303</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.2731738899925247</v>
+        <v>0.3176298828380495</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.9733196824992633</v>
+        <v>0.9877123223231751</v>
       </c>
     </row>
     <row r="24">
@@ -1318,31 +1320,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.044702019406917</v>
+        <v>3.014972581157328</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.688669528256703</v>
+        <v>3.629286309751938</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3.541915002963623</v>
+        <v>3.515090938560291</v>
       </c>
       <c r="F24" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.554754252337616</v>
+        <v>1.518872129211797</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>5.803490660653419</v>
+        <v>5.367282998668852</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>1.557153483078827</v>
+        <v>1.440698639524446</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>2.276190036626197</v>
+        <v>2.264043706617645</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>3.613631836735892</v>
+        <v>3.451458212834117</v>
       </c>
     </row>
     <row r="25">
@@ -1359,7 +1361,7 @@
         <v>5.619595684696407</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>5.692593239728608</v>
+        <v>5.692593239728611</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>-1</v>
@@ -1368,7 +1370,7 @@
         <v>1.725147961283387</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>7.323756300902777</v>
+        <v>7.323756300902775</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>1.89574074295292</v>
@@ -1394,13 +1396,13 @@
       <c r="G26" s="6" t="inlineStr"/>
       <c r="H26" s="6" t="inlineStr"/>
       <c r="I26" s="6" t="n">
-        <v>-0.4803348833604347</v>
+        <v>-0.6498382488324692</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.2511315458401852</v>
+        <v>-0.1459505615537564</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.2328890955478739</v>
+        <v>0.4186825249821706</v>
       </c>
     </row>
     <row r="27">
@@ -1438,7 +1440,7 @@
         <v>0.7072429418504037</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1.647598232712212</v>
+        <v>1.647598232712213</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>-0.107006411288881</v>
@@ -1467,31 +1469,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.6467080261828554</v>
+        <v>0.62324926904476</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.1562503979905654</v>
+        <v>0.1572696918963946</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.8794875384229264</v>
+        <v>0.8448602108773295</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-0.3563384126741921</v>
+        <v>-0.3723146250484652</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-0.07816008596899454</v>
+        <v>-0.06316511443067299</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.8496034302463228</v>
+        <v>0.8252383576147309</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.2018711418423874</v>
+        <v>0.2258288316957985</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.1676444599083975</v>
+        <v>0.1402298348734423</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>1.208487588900569</v>
+        <v>1.141532321504094</v>
       </c>
     </row>
     <row r="30">
@@ -1502,31 +1504,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>1.817860259018562</v>
+        <v>1.835685610905427</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>1.232313599976188</v>
+        <v>1.223964963641029</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2.566932510344711</v>
+        <v>2.497375740389629</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.09390819356593468</v>
+        <v>0.08472682168866948</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.5206300801971555</v>
+        <v>0.5485151706151707</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>2.922613558273198</v>
+        <v>2.917824140750231</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.8529065153636013</v>
+        <v>0.8289660833805403</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.7675572887446621</v>
+        <v>0.752695621188517</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>2.468808822759553</v>
+        <v>2.423688910989581</v>
       </c>
     </row>
     <row r="31">
@@ -1552,7 +1554,7 @@
         <v>0.9028686083501964</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>6.446036811041395</v>
+        <v>6.446036811041396</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>1.068568496749638</v>
@@ -1561,7 +1563,7 @@
         <v>0.930626381815738</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>3.477475486449974</v>
+        <v>3.477475486449975</v>
       </c>
     </row>
     <row r="32">
@@ -1572,31 +1574,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.5475696993057515</v>
+        <v>0.5744378944698967</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.1008640545607775</v>
+        <v>0.1531793652963287</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.8949629537706101</v>
+        <v>0.7872678288475163</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.8502043059938611</v>
+        <v>-0.8699260204160894</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.3331647144067208</v>
+        <v>-0.2716437249214304</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>1.87222953043287</v>
+        <v>1.893730349075386</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2811518036013653</v>
+        <v>0.3469965012276258</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.2617571102291971</v>
+        <v>0.1922635813336868</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>2.005426877886353</v>
+        <v>1.762232932225019</v>
       </c>
     </row>
     <row r="33">
@@ -1607,31 +1609,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>3.319723232570131</v>
+        <v>3.18145814092183</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>2.321627693121625</v>
+        <v>2.24924083894244</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>4.555892444457013</v>
+        <v>4.315606109292844</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.995729203204711</v>
+        <v>0.8702025963709885</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>4.14344269551745</v>
+        <v>4.262642114829201</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>24.54366616637081</v>
+        <v>20.27185717784569</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>2.301761500731627</v>
+        <v>2.151837220770921</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>2.099851115383645</v>
+        <v>1.96648634866734</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>6.493728983555945</v>
+        <v>6.202404905174701</v>
       </c>
     </row>
     <row r="34">
